--- a/Lacin_summary_FinalConfirmation_moredata_7.xlsx
+++ b/Lacin_summary_FinalConfirmation_moredata_7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967403AC-9518-451E-8F2D-2E67524A1BC8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87F561E-4176-4841-BA50-ECCEC564AD26}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11835" xr2:uid="{02CAC15C-87C0-4BEC-B867-2B2C7366C6D3}"/>
   </bookViews>
